--- a/sourceData/售后仓库退款单/售后仓库退款单2.xlsx
+++ b/sourceData/售后仓库退款单/售后仓库退款单2.xlsx
@@ -11,14 +11,14 @@
     <sheet name="按销售日期统计" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">明细!$A$1:$A$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">明细!$A$1:$A$21</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="128">
   <si>
     <t>订单编号</t>
   </si>
@@ -83,13 +83,10 @@
     <t>测试数据看看11</t>
   </si>
   <si>
-    <t>w1259</t>
+    <t>w1260</t>
   </si>
   <si>
     <t>测试数据看看12</t>
-  </si>
-  <si>
-    <t>w1260</t>
   </si>
   <si>
     <t>测试数据看看13</t>
@@ -1441,10 +1438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="$A23:$XFD25"/>
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5555555555556" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1611,224 +1608,207 @@
         <v>21</v>
       </c>
       <c r="B10" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="4">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="4">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="4">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A22">
+  <autoFilter ref="A1:A21">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1849,45 +1829,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
@@ -1914,13 +1894,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1947,13 +1927,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -1980,13 +1960,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2013,13 +1993,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2046,13 +2026,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2079,13 +2059,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2112,13 +2092,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -2145,13 +2125,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2178,13 +2158,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -2211,13 +2191,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -2244,13 +2224,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -2277,13 +2257,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -2310,13 +2290,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -2343,13 +2323,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -2376,13 +2356,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2409,13 +2389,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2442,13 +2422,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2475,13 +2455,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2508,13 +2488,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2541,13 +2521,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2574,13 +2554,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -2607,13 +2587,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -2640,13 +2620,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -2673,13 +2653,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
@@ -2706,13 +2686,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -2739,13 +2719,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2772,13 +2752,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -2805,13 +2785,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2838,13 +2818,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -2871,13 +2851,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -2904,13 +2884,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -2937,13 +2917,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -2970,13 +2950,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -3003,13 +2983,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -3036,13 +3016,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -3069,13 +3049,13 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -3102,13 +3082,13 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -3135,13 +3115,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -3168,13 +3148,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -3201,13 +3181,13 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -3234,13 +3214,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -3267,13 +3247,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -3300,13 +3280,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -3333,13 +3313,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -3366,13 +3346,13 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -3399,13 +3379,13 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
@@ -3432,13 +3412,13 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -3465,13 +3445,13 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -3496,13 +3476,13 @@
         <v>175</v>
       </c>
       <c r="M50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="P50" s="2">
         <v>41</v>
@@ -3510,13 +3490,13 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -3541,13 +3521,13 @@
         <v>32</v>
       </c>
       <c r="M51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="P51" s="2">
         <v>130</v>
@@ -3555,7 +3535,7 @@
     </row>
     <row r="52" spans="9:16">
       <c r="I52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J52">
         <v>-171</v>
@@ -3567,7 +3547,7 @@
     </row>
     <row r="53" spans="9:10">
       <c r="I53" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J53" s="3">
         <f>SUM(J2:J52)</f>
